--- a/classfiers/nano/welm/nearmiss/nano_welm_lin_nearmiss_results.xlsx
+++ b/classfiers/nano/welm/nearmiss/nano_welm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.675</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6648199445983379</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6243386243386243</v>
+        <v>0.4792243767313019</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.35</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.718421052631579</v>
+        <v>0.7839335180055402</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C5" t="n">
-        <v>0.25</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6548913043478261</v>
+        <v>0.7911764705882354</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.3870967741935483</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6871657754010695</v>
+        <v>0.5088235294117647</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6170512820512821</v>
+        <v>0.6011379800853486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3350831624515835</v>
+        <v>0.3237770897832818</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4595651660167789</v>
+        <v>0.4387914770803971</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6798204942009626</v>
+        <v>0.645595567867036</v>
       </c>
     </row>
   </sheetData>
